--- a/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
+++ b/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/data_submission_sample_unkres_acc_good/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/data_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1533F65F-30B4-9B45-84B7-3EA0F4714A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2E72C-025F-5048-81E3-56423B7F08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="6400" windowWidth="33060" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="6260" windowWidth="33060" windowHeight="20340" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
     <sheet name="Treatments" sheetId="3" r:id="rId3"/>
+    <sheet name="Peak Annotation Files" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -129,30 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Concentration of infusate in this infusion solution (TODO: specify units)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Lance Parsons</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -184,12 +162,21 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -376,16 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
-  <si>
-    <t>Animal ID</t>
-  </si>
-  <si>
-    <t>Animal Genotype</t>
-  </si>
-  <si>
-    <t>Animal Body Weight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Infusion Rate</t>
   </si>
@@ -406,9 +384,6 @@
   </si>
   <si>
     <t>fed</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
   </si>
   <si>
     <t>Date Collected</t>
@@ -438,16 +413,7 @@
     <t>Mice on control AA purified diet for 3 weeks</t>
   </si>
   <si>
-    <t>Study Name</t>
-  </si>
-  <si>
     <t>Infusate</t>
-  </si>
-  <si>
-    <t>glucose-[13C6]</t>
-  </si>
-  <si>
-    <t>Tracer Concentrations</t>
   </si>
   <si>
     <t>Feeding Status</t>
@@ -473,6 +439,51 @@
   <si>
     <t>George Costanza</t>
   </si>
+  <si>
+    <t>Animal Name</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>glucose-[13C6][200]</t>
+  </si>
+  <si>
+    <t>glucose-[13C6][800]</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Peak Annotation File</t>
+  </si>
+  <si>
+    <t>File Format</t>
+  </si>
+  <si>
+    <t>Default Sequence Name</t>
+  </si>
+  <si>
+    <t>DataRepo/data/tests/data_submission/accucor1.xlsx</t>
+  </si>
+  <si>
+    <t>accucor</t>
+  </si>
+  <si>
+    <t>DataRepo/data/tests/data_submission/accucor2.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -482,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -515,6 +526,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -533,10 +551,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -550,9 +569,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{07254D6C-9F1F-9347-BE0C-FC871CD14509}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,9 +590,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -608,7 +630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -714,7 +736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,9 +886,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -877,97 +899,87 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>24</v>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>28.4</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="F2">
-        <v>200</v>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>33.299999999999997</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3">
-        <v>800</v>
+      <c r="F3" t="s">
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +995,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1007,22 +1019,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -1041,22 +1053,22 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>44041</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1071,22 +1083,22 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6">
         <v>44041</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1101,22 +1113,22 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>44041</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1131,22 +1143,22 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6">
         <v>44041</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -15805,10 +15817,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15837,10 +15849,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -15848,4 +15860,51 @@
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAF773E-BA0C-B242-B4DB-419B79EABDD5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="35.1640625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
+++ b/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/data_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2E72C-025F-5048-81E3-56423B7F08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C056547-60A8-FA48-B35F-B6F3F7A264B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="6260" windowWidth="33060" windowHeight="20340" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Treatments" sheetId="3" r:id="rId3"/>
     <sheet name="Peak Annotation Files" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -473,9 +473,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
-  </si>
-  <si>
     <t>DataRepo/data/tests/data_submission/accucor1.xlsx</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>DataRepo/data/tests/data_submission/accucor2.xlsx</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
   </si>
 </sst>
 </file>
@@ -15866,7 +15866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAF773E-BA0C-B242-B4DB-419B79EABDD5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15884,23 +15886,23 @@
         <v>35</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
+++ b/DataRepo/data/tests/data_submission/animal_sample_unknown_researcher.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/data_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/data_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C056547-60A8-FA48-B35F-B6F3F7A264B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38674C-A629-574D-B79A-2BFF69AE02C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="6260" windowWidth="33060" windowHeight="20340" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
     <t>DataRepo/data/tests/data_submission/accucor2.xlsx</t>
   </si>
   <si>
-    <t>Default MS Run</t>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -15867,7 +15867,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
